--- a/whats-new-bedrock-resources.xlsx
+++ b/whats-new-bedrock-resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasveena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC86A87F-DF36-1546-BBF7-B98DB8AD2A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA3684-5587-5E4E-BF74-759E69FBC90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4720" windowWidth="47100" windowHeight="18420" xr2:uid="{5D24C1DF-DD3C-464F-B1E6-AE28DFA9C535}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BAE8E1-FFE5-A74D-B30E-FBFEA27E90BE}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
